--- a/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>-7,14%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-4,47%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 23,85</t>
+          <t>-7,23; 24,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 7,36</t>
+          <t>-15,18; 7,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 4,1</t>
+          <t>-11,09; 8,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 2,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 42,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 11,48</t>
+          <t>-11,97; 26,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 6,08</t>
+          <t>-8,84; 41,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 4,19</t>
+          <t>-19,16; 10,01</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-14,81; 11,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 59,1</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>-14,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,85</t>
+          <t>-11,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,61</t>
+          <t>-14,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,48%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,56%</t>
+          <t>-16,16</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-23,28%</t>
+          <t>-22,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,97%</t>
+          <t>-19,2%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-23,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-25,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,14; -4,94</t>
+          <t>-22,17; -6,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,19; -5,15</t>
+          <t>-17,88; -4,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,31; -8,03</t>
+          <t>-21,17; -8,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,16; -5,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,0; -8,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,69; -9,25</t>
+          <t>-24,07; -7,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,96; -13,83</t>
+          <t>-33,34; -10,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,29; -11,02</t>
+          <t>-28,36; -8,55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-31,96; -14,37</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-35,82; -13,68</t>
         </is>
       </c>
     </row>
@@ -820,12 +932,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-23,31</t>
+          <t>-30,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-23,94</t>
+          <t>-25,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -835,27 +947,47 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-42,9%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-42,65%</t>
+          <t>-20,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>-49,1%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-44,52%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>-44,7%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-28,2%</t>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-35,92%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,63; -15,81</t>
+          <t>-38,92; -21,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,12; -17,17</t>
+          <t>-32,47; -18,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,82; -18,67</t>
+          <t>-32,33; -19,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,18; -3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,68; -31,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,81; -32,92</t>
+          <t>-28,22; -11,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-52,56; -35,0</t>
+          <t>-58,45; -38,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,94; -7,89</t>
+          <t>-53,08; -33,57</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-52,5; -35,95</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-46,6; -22,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,69</t>
+          <t>-7,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,95%</t>
+          <t>-20,02</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-25,03%</t>
+          <t>-11,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,86%</t>
+          <t>-13,77%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-32,72%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,01; -6,52</t>
+          <t>-13,31; 0,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -8,48</t>
+          <t>-17,12; 0,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,95; -11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -5,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,7; -11,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,26; -14,48</t>
+          <t>-28,48; -11,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,66; -19,2</t>
+          <t>-23,09; 1,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,49; -9,92</t>
+          <t>-26,91; 1,33</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-43,45; -19,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-12,54</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-13,27</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-15,27</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-15,61</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-20,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-21,78%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-24,29%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-25,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-16,84; -7,9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-17,05; -9,11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-19,37; -11,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-20,23; -10,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-27,12; -13,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-27,07; -15,18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-29,63; -18,72</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-32,02; -18,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,89</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,2</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-7,14%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-4,47%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.744084425655226</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.185561782161008</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.203046628229411</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>3.130474262552019</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.06373096111591696</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.06956532632139413</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.04477575032093134</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>0.0504622056585715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,23; 24,08</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,18; 7,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 8,27</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-11,97; 26,36</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-8,84; 41,69</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-19,16; 10,01</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-14,81; 11,08</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-16,6; 59,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.926452788129512</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.46930928145275</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-11.11402503407977</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-10.36266779851687</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.07367832700850176</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1843411730265824</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.147173991536603</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>-0.146008888586097</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23.0116519369778</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.368251173394492</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.375566116953492</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>27.18573788663043</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.3859473598817522</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.09104306314402363</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.09876558269405518</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>0.6126182543314471</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-14,03</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-11,49</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-14,43</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-16,16</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-22,1%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-19,2%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-23,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-25,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-22,17; -6,13</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,88; -4,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,17; -8,53</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-24,07; -7,73</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-33,34; -10,53</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-28,36; -8,55</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-31,96; -14,37</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-35,82; -13,68</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-13.21357684403117</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-10.07685512775426</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-14.18389246751406</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>-16.53465843681256</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2122928942227199</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1711844458746545</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2272157824557572</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>-0.2563744822549537</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-30,7</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-25,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-25,77</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-20,08</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-49,1%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-44,52%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-44,7%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-35,92%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-21.11025693148528</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-16.77850522623589</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-21.06672833659451</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-24.72697407650692</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3190675211295691</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2664457279100974</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3195017192273223</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>-0.3625673786392227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-38,92; -21,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-32,47; -18,32</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-32,33; -19,72</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-28,22; -11,26</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-58,45; -38,11</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-53,08; -33,57</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-52,5; -35,95</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-46,6; -22,56</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-5.127445585975011</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-3.789391212111247</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-8.167771077533903</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>-8.3327785641712</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.08805560054020549</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.06623259894610255</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.1397163242509718</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>-0.1397865171703682</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,16</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-7,85</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-20,02</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-11,39%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-13,77%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-32,72%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-30.33747763786523</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-25.91555029721656</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-26.19453860730755</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-20.55387169688814</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.488904104514319</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4464783284203699</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.4528806141573187</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.3686064093765124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,31; 0,83</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,12; 0,29</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-28,48; -11,19</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-23,09; 1,65</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-26,91; 1,33</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-43,45; -19,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-38.61357900184561</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-32.95480550644579</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-32.74456391607208</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-28.76132132438263</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5817464956594512</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5308993867580807</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.5278692844967793</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.4774300224424821</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-20.81064495152408</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-18.74094705685142</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-20.24646875036924</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>-11.6205754214665</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.3698621467542574</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.3362096490384544</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.3658624087488846</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>-0.2354736763390406</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-12,54</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-13,27</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-15,27</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-15,61</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-20,77%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-21,78%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-24,29%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-25,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-16,84; -7,9</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-17,05; -9,11</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-19,37; -11,33</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-20,23; -10,71</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-27,12; -13,81</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-27,07; -15,18</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-29,63; -18,72</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-32,02; -18,54</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-16.44976985708806</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-14.15124163691954</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-15.23704869389517</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>-13.83447828409526</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2563659769209701</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2293614437573529</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2426525764493634</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>-0.2270175441144323</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-22.10873407710095</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-18.5337307414236</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-19.3866518385766</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-19.1455597406331</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3281880393351019</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2877501418837613</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2975127736513768</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>-0.3024228190163786</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-10.98693671393083</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-9.308784018367751</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-11.33828705263441</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>-7.19938524986774</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.1795877314418831</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.1584146460662066</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.1867674999433928</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>-0.1289445148656686</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
